--- a/SubwayData/Excel/의정부경전철 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/의정부경전철 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1247D57-9A26-3749-8CFA-0D4D879FC5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70455911-F5D0-F64D-B602-BA76945DDFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{43154AFA-1C00-D34B-A954-54B049E64BF8}"/>
   </bookViews>
@@ -94,13 +94,14 @@
     <t>곤제</t>
   </si>
   <si>
-    <t>어룡(용현산업단지)</t>
-  </si>
-  <si>
     <t>송산</t>
   </si>
   <si>
     <t>탑석</t>
+  </si>
+  <si>
+    <t>어룡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -510,7 +511,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -708,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
         <v>0.9</v>
@@ -722,7 +723,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3">
         <v>0.6</v>
@@ -736,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3">
         <v>0.4</v>
